--- a/ig/sd-typo-phase-3-et-4/StructureDefinition-eclaire-label.xlsx
+++ b/ig/sd-typo-phase-3-et-4/StructureDefinition-eclaire-label.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T13:31:52+00:00</t>
+    <t>2023-09-15T13:38:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-typo-phase-3-et-4/StructureDefinition-eclaire-label.xlsx
+++ b/ig/sd-typo-phase-3-et-4/StructureDefinition-eclaire-label.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T13:38:36+00:00</t>
+    <t>2023-09-15T13:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
